--- a/portfolio-matrices/bohbohboh.xlsx
+++ b/portfolio-matrices/bohbohboh.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,262 +468,5222 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>39080</v>
+        <v>43465</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2153194301182318</v>
+        <v>0.1674007029607203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1658712810904766</v>
+        <v>0.1928801162675389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1858419733791389</v>
+        <v>0.2009143087961241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2326849113826382</v>
+        <v>0.2522334228185842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2002824040295146</v>
+        <v>0.1865714491570326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>39447</v>
+        <v>43466</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2151405123292878</v>
+        <v>0.1673580632159853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1803009153909436</v>
+        <v>0.1940903559626707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1875169712105787</v>
+        <v>0.2004753176279887</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2145190602315417</v>
+        <v>0.2520708890142377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2025225408376484</v>
+        <v>0.1860053741791176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>39813</v>
+        <v>43467</v>
       </c>
       <c r="B4" t="n">
-        <v>0.219214888305759</v>
+        <v>0.1673355938055504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1885776020285008</v>
+        <v>0.1941873042636841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186016107620582</v>
+        <v>0.200495236863647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1978881649447124</v>
+        <v>0.2520129932424202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2083032371004458</v>
+        <v>0.1859688718246986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40178</v>
+        <v>43468</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1922803862164084</v>
+        <v>0.1675590455061977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1921102016326783</v>
+        <v>0.1932889466250338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1963327565839731</v>
+        <v>0.2007615961009457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2198321545478095</v>
+        <v>0.251800534747695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1994445010191306</v>
+        <v>0.1865898770201279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40543</v>
+        <v>43469</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1928614775726133</v>
+        <v>0.1666432654800005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20195840368763</v>
+        <v>0.1958551968917118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1960928787024861</v>
+        <v>0.2001511098265806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.222651424362697</v>
+        <v>0.2527849311871778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1864358156745737</v>
+        <v>0.1845654966145292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40907</v>
+        <v>43472</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1843753861359599</v>
+        <v>0.1665812345222479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1981639728784054</v>
+        <v>0.1958823652723536</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193569680736768</v>
+        <v>0.2002684638274727</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2305939747092194</v>
+        <v>0.2528270348260661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1932969855396474</v>
+        <v>0.1844409015518597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41274</v>
+        <v>43473</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1838155560150307</v>
+        <v>0.1665256222098127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2025619389602867</v>
+        <v>0.1964969920350386</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1938443056674272</v>
+        <v>0.200020704389687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.231777862869953</v>
+        <v>0.2530819851278241</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1880003364873025</v>
+        <v>0.1838746962376376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41639</v>
+        <v>43474</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1770112914658789</v>
+        <v>0.1662606920519729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2000081131629231</v>
+        <v>0.1969247520486618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1977824966640377</v>
+        <v>0.1997737169176979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2359388609972317</v>
+        <v>0.2531161950654441</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1892592377099287</v>
+        <v>0.1839246439162232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42004</v>
+        <v>43475</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1772396792182283</v>
+        <v>0.1660858696749147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2005561488347</v>
+        <v>0.1971787400570486</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1962156671680178</v>
+        <v>0.1999896684409508</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2380440013523918</v>
+        <v>0.252999387099699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1879445034266622</v>
+        <v>0.1837463347273868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42369</v>
+        <v>43476</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1751190816822179</v>
+        <v>0.1661125113389715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.198323353354629</v>
+        <v>0.196949920430339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1959872288006036</v>
+        <v>0.2001586400766739</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2431991956477327</v>
+        <v>0.2530701118914238</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1873711405148168</v>
+        <v>0.1837088162625918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42734</v>
+        <v>43479</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1678991749571019</v>
+        <v>0.1663324042389647</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2020499898819706</v>
+        <v>0.1963863575808172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1975022701298692</v>
+        <v>0.2000854553979031</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2491313480280617</v>
+        <v>0.2529777996052314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1834172170029967</v>
+        <v>0.1842179831770837</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43098</v>
+        <v>43480</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1680278000951758</v>
+        <v>0.1663723399152157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2031071180554326</v>
+        <v>0.1966250022861821</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1970746695281188</v>
+        <v>0.2000038106993095</v>
       </c>
       <c r="E13" t="n">
-        <v>0.251137733541867</v>
+        <v>0.2529541788825087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1806526787794058</v>
+        <v>0.1840446682167839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43465</v>
+        <v>43481</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1674000345507274</v>
+        <v>0.1658338877070211</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1928790656882175</v>
+        <v>0.1969525074412439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2009150920345412</v>
+        <v>0.1999559815858612</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2522341031899882</v>
+        <v>0.2535741156654893</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1865717045365257</v>
+        <v>0.1836835076003845</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43482</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.165921322568149</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1967450694662897</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2000561458717519</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2534464044995587</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1838310575942509</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43483</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1656032084030906</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1977069312499683</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2000019902877532</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2539734212908499</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1827144487683381</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43486</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.165756872688834</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1975996541431036</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2000556333037256</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2535469239760527</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1830409158882841</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43487</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1661580067329118</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1970527970807006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1999246863856595</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2537217563116444</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1831427534890835</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43488</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1663626239536327</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1969409601860522</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2000118227796946</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2540791907742868</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1826054023063338</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43489</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1660142216572569</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1970988688249861</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1998329001070283</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2544783483119654</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1825756610987631</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43490</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1656705274633928</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1972039570661794</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1994275426362928</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2552985651030487</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1823994077310864</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43493</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1662319056242567</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.196707486554593</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1996771808384945</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2537584415819851</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1836249854006707</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43494</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1659451344032349</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1969093115604621</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1993328611815946</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2545917867973216</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1832209060573868</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.166002926282269</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1974546315508173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1989029987978935</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2538619744419952</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.183777468927025</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1661630986924862</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1975061653490855</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1987554252622217</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2535713484540112</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1840039622421954</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1665536532002136</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1974856883694946</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.198484614452091</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2530883898908328</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.184387654087368</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43500</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1664570599615396</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1972700275473662</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1987782315441186</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2527786857908738</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1847159951561018</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43501</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1666657413710219</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1982100994193202</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1984076954879241</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2521428585180845</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1845736052036493</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43502</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1662803205408365</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1984233125641094</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1985323112831031</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2521817321451131</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1845823234668379</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1668738161004193</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1971683456949438</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1991283533942157</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2516892360509798</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1851402487594416</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>43504</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1669509947066749</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1966313488806304</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1992908147709422</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2516042373602768</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1855226042814758</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>43507</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.166778957852346</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1974001226717386</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1989665118603814</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2515191767528779</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1853352308626561</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>43508</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1663654094009548</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.197667550874402</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1986277012500526</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2521120081038374</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1852273303707533</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>43509</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1660888642730414</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1980587529316349</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1986818649381535</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2516214424797439</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1855490753774262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>43510</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1664950735454747</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1978231801191825</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1987889499454951</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2512840935843304</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1856087028055174</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>43511</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1660239323480414</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1987492435948455</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1981121624295222</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2520525344111719</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.185062127216419</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>43514</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.165747145124685</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1988011196723728</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1979889334822848</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2526699371288633</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1847928645917942</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>43515</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.165934469071137</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1982812024904519</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1980537455325691</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.2528369443058756</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1848936385999664</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>43516</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1660406744420721</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1985003072763754</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1978634079656789</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2527264102038447</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.184869200112029</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>43517</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.166150825703834</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1979584222985967</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1977828162042323</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2535021655955658</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1846057701977712</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>43518</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.16613583913761</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1979862299817019</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1976428406460058</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2535833016302967</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1846517886043857</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>43521</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1657726213663686</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1980159515554288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1976086693684239</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2537266453821932</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1848761123275856</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>43522</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1657563901429718</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.197739141574853</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1975774829530143</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2542568043596239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1846701809695371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43523</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1655321967820758</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1975217265251652</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.197731655035565</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2546156496795987</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1845987719775953</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1651589471755036</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1975979950379534</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1976811369290578</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2554071607377811</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.184154760119704</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1651951926658519</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1975227380120549</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1975197621924438</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.255288902961143</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1844734041685063</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>43528</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1652394113881056</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1977091247503449</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1973514976637612</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2549929152041177</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1847070509936707</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>43529</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1654692971107302</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1978219572711117</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.197446751366949</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.254242571546831</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.185019422704378</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>43530</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1651339406308571</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.198059600031499</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1978008340852448</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2542972428207005</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1847083824316986</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>43531</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1655374248639003</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1976345388555744</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1979239041358666</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2540531261292762</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1848510060153825</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>43532</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1659501527265776</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1968903029025897</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1981838910604108</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2536566633931632</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1853189899172586</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>43535</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1656899284179343</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1970053088474644</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1979678732077104</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2540424972642101</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1852943922626807</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>43536</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1657520248954037</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1970722002702767</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1980069588929673</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.2537515643718268</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1854172515695255</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>43537</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1656807409317671</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1972313607737049</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1976599931865752</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2540280499462916</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1853998551616613</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>43538</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1654601111064542</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1976147523703903</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1972599463005539</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2540807929633477</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.185584397259254</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>43539</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1654653932134363</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1981589587015225</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1968702065886509</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2544643190476975</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1850411224486928</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1651578559907911</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1989038722976646</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1972443214455879</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2539382814883439</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1847556687776126</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>43543</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1648655932661172</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1988681364575692</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1975735713467988</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2543014297145125</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1843912692150024</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>43544</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1649032858559022</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1986849945333618</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1979382075026762</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2537446606343041</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1847288514737556</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>43545</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1648887176199702</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1989638542563517</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.1982023450905053</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2526285116585774</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1853165713745955</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>43546</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1653279024897138</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1973802030805839</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.1989337549072759</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2528259510651283</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1855321884572981</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1654386986269172</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1970423517075197</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1989818186065493</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2530170935292775</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1855200375297361</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>43550</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1654015533184744</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1971780366780975</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1985474970781654</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2531585863354321</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1857143265898307</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>43551</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1653776103119929</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1972238985737814</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1987409245382981</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2532099857865105</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1854475807894171</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>43552</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1656523247787926</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1970474861754705</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1988407567541636</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2526872758387857</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1857721564527876</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1654157733842861</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1975387499423053</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.198520581984888</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2527098747730795</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1858150199154409</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1652381933817683</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1981006666599488</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1982139447229269</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2528626162507804</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1855845789845756</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1652833460445228</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1983793911538842</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.1981873755659788</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2525163607620067</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1856335264736076</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43558</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1651509321699167</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1987866676566095</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1979977970801298</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.2526967656954018</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1853678373979423</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43559</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.16519485431746</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1987424922159777</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.198052005927369</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2528711382082982</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1851395093308949</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43560</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1651811865453207</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1988573291113546</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1980334262717448</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2526183785425069</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1853096795290729</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43563</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1651416859530428</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1987622841870297</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1980617822208552</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.2524983697488929</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1855358778901792</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43564</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1651848776138179</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1985199163364906</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1982600965531983</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.252533818663474</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.185501290833019</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43565</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1651768688388978</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1985120139964346</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1981832663538454</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2526222464246993</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1855056043861228</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43566</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1651937858731644</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1986242706985915</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1979689359602976</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2528055418661527</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1854074656017939</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43567</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1650418385004243</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1987829965406414</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1979284311206241</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2528370236208349</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1854097102174754</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>43570</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1650176659382679</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1988275527451066</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.1979186811430455</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.2529238507367203</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1853122494368598</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>43571</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1650269747503934</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1989244523295077</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.1978425666545749</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2528106103421937</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1853953959233305</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>43572</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1649963938182329</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1990779126358719</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1976366137570264</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2530229753445996</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1852661044442692</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43573</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1649820058277932</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1991863007350133</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1975153608436701</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2531316470499849</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1851846855435385</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43574</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1649680196119623</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1993035348593576</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1973684715632294</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.2532622273702537</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1850977465951971</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43577</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1650563450039222</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1992817224337886</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.197248057709412</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2534590230567215</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1849548517961556</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>43578</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1651991466569988</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1993527815049658</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.197257752874588</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2528869174546929</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1853034015087546</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43579</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1653325936022948</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1989556230660066</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1972665068016032</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.25292839644336</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1855168800867353</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>43580</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1652547082455215</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1988117454066063</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.197424108117046</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2533726767127888</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1851367615180374</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>43581</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1652454004301417</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1987989117232162</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1973490979794154</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2534768525069998</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1851297373602269</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1652217732793962</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1988678572921859</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1973242210675557</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2534625472086223</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1851236011522399</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1651491063540754</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.198830502411582</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1972390433641439</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2537191114415527</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.185062236428646</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1650296468110963</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1988406646339954</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1972254693985896</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.2541056764029344</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1847985427533841</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>43587</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1650662595133752</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1983834199727044</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1974873180626967</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2538460052491625</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1852169972020611</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>43588</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1649873946704064</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1983689790907898</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1973894682141174</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2540344313764649</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1852197266482216</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>43591</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1652903745496219</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1981092830155889</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1979040439179253</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2532214854553196</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1854748130615443</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>43592</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.1653138680199662</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1976226753080342</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1982782121811537</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2533207606451659</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1854644838456802</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>43593</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1653471776710774</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.197630898993464</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1981428146204526</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2534569057703937</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.1854222029446123</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>43594</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1655378873977285</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1972871130839561</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.1985708339102439</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.2530228558748976</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1855813097331737</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>43595</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1655022445136893</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1973401177927669</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.1985084974151721</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2530968811560976</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1855522591222739</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>43598</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1656234572168462</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1971306375727455</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1987272915348202</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2528711990418187</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1856474146337694</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>43599</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1654988056059866</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1973731927575993</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1984435553597969</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2531255895614169</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1855588567152002</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>43600</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1655154570339577</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1975225245394604</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1983375309738721</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.2531099698590151</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1855145175936947</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>43601</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1654894390268972</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1979625056742728</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1979675758290309</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2532405976906361</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1853398817791631</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>43602</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.1654930538410695</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.197758382954564</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.198174692171335</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.2532021749368854</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1853716960961461</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>43605</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1656079320414501</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.197444309300039</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1984557987134452</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.2530319305876558</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.1854600293574098</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>43606</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1655811249883897</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.1975744455889211</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.1983614527527624</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.253084836181315</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1853981404886118</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43607</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1656171795596244</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.1975600742763325</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.1983870483324597</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2530392322500529</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1853964655815305</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>43608</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1655690661510363</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.1971663428715621</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1986633816479131</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2530119674561826</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.185589241873306</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>43609</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.1655759772143022</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1972546893700822</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.1985578562475629</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.2531266344160316</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1854848427520212</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.1655951946524719</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1973351223826548</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1984850477380608</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.253192644416148</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1853919908106644</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>43613</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1656046352456716</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1972659877076722</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1985574947776073</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.2531306346332903</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1854412476357585</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>43614</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1656218639699178</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.197017750615386</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.1987930307124346</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.2528319551652194</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1857353995370421</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>43615</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1656054330472718</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1971097724638911</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1987287361251798</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.2529769502212745</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1855791081423827</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1657542407777544</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1969147653200567</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.1988733714218537</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2525795868263086</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1858780356540266</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1656408244812591</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1969652524219453</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1987832276403237</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.2528620801708548</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1857486152856172</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>43620</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1656010531180626</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1971757954647606</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1986444489917387</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2530833132708769</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1854953891545613</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>43621</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1656069112865448</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1972184212535617</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1985884901516923</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.2531543697970717</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1854318075111296</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>43622</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1656162116361221</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1972358085836846</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1986345967016702</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.2531167368198972</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.185396646258626</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>43623</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1656378157342911</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1975806993469584</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.1983969570576712</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.2530927803412522</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1852917475198272</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>43626</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.1656281544925428</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1977981947649531</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1984098155774706</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2529842472457491</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1851795879192845</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>43627</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1655400201085035</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1978984178144488</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1982891053695479</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.2530879416299596</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.1851845150775403</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>43628</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1655006143791396</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1977613928984292</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1984425535884252</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.2529721991960383</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1853232399379677</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>43629</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1653893655283066</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.1978292133207813</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1984619739060942</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.2529979533949544</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1853214938498635</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>43630</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1653769108968633</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1977012416126991</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.198460420373412</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.2530404287146817</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.185420998402344</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>43633</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1653445587342222</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1977108532842424</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1983673272472357</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2529752171964768</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.1856020435378229</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>43634</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.1649442540013387</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.1983850385893985</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.1978219365291858</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.2532903996754104</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1855583712046667</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>43635</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1649112278120455</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1983131486058846</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.197786844900636</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2535112259115163</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1854775527699175</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>43636</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1649836538945993</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.1981589206383257</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.197701525839859</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2535172490542707</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.1856386505729453</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>43637</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1648811245271385</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.1982266365345293</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1978042079821481</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2535745251140242</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1855135058421598</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>43640</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1650433732474737</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.1980995144716874</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1978183927146556</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.2534378759657919</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1856008436003913</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>43641</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1651458618007532</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.1980585460871772</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1978973090843833</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.2532682450873959</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.1856300379402904</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>43642</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1651945157359177</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1979849076429181</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1979926160009095</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.2532196072213078</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.185608353398947</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>43643</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1651301747679118</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.1979430691183795</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1980302792052349</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.253303637322132</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1855928395863418</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1651328476341537</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.1982113205901493</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1977246812349339</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.2533184934669889</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1856126570737742</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1654387718013655</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.1982612099973044</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1977543149190105</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.2527616502245035</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.1857840530578161</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>43648</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1654605909577192</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.1982419830086018</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1978772750613393</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.252475137180438</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1859450137919017</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>43649</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1664746286594136</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.1984894353575644</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1975265910556527</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.2520365304642593</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.18547281446311</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>43650</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.1662668340860289</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1984130607676452</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1975981418694121</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2521370270959561</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1855849361809578</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>43651</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1664992375491546</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1980752818569643</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1975831602010398</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.2522990332025428</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.1855432871902985</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>43654</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1664373376679999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.1979398036358441</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1976135834140165</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.2522964206959837</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.1857128545861558</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>43655</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1664435839935994</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1977641689498978</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1977725904425687</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.2523297711847353</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.1856898854291988</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>43656</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.1663336709151647</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1977702331504025</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1978110970640118</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.2523363141001297</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1857486847702912</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>43657</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.1662055110878534</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.1977274155122278</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1979329905591197</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.2525426594471075</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1855914233936916</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>43658</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.1662533541032608</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.197749161068572</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1977911000639746</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.2526614409737089</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1855449437904836</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.1662191171214533</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.1978747561713874</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.1978572556740712</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.252610492527141</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.185438378505947</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>43662</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.1662423437180188</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.1981596596040981</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1976939329066696</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.2524692296249298</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1854348341462838</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>43663</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.1664109784536353</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.1978312182562752</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1978433146717198</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.2523432688335513</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1855712197848184</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>43664</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1663819843797485</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1976543384479949</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.1978762127362703</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.2524292607199891</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1856582037159973</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.1667342736002589</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.1974847683351435</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1978475185959394</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.2521073952487242</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.1858260442199341</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>43668</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.1666826652117234</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1974889619980886</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1977908809486466</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.252149582726053</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1858879091154882</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>43669</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.1666389497337718</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.197734798804437</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.1976341770488097</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.2522990523736317</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.1856930220393497</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>43670</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1664997249786662</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.1976382040439162</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1976692374193151</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.2528202890618662</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.1853725444962362</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>43671</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.1666288803299323</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.1974918342458476</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1978388082103213</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.2525736139480503</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1854668632658485</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>43672</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1667430703372806</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.197577683997233</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.197714768138044</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.2521351467390296</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1858293307884129</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>43675</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.1670286275522201</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1978896131359592</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1980653100289924</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.2508989767284939</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.1861174725543343</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>43676</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.167121820562252</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.1972603978157685</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1983972612658786</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.250824674294564</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1863958460615368</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.1668331064930258</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1968972774124743</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1979898442790109</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.2522032365407227</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1860765352747664</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.1667956528396217</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1969426529813783</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1978489513944414</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.2523376491717222</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1860750936128363</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>43679</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.1670353626103468</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.196187141107649</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1983302757563568</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.2525849559099947</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1858622646156526</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>43682</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1675242468296095</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1956112563677286</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.1985048520172187</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.2522166074009314</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.1861430373845119</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.1677289267922561</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.1954998425196877</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.1986981462619867</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.2517501378899623</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.1863229465361072</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1675274050367725</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1956115561608846</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.1985990058089851</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.2520170568040326</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1862449761893253</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.1673128511388686</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1958863024818085</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1982227422586643</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.2524312561429147</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1861468479777441</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>43686</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.1673258485438089</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.1957773491026994</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1984366249928632</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.2522455329023665</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.1862146444582622</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1673748545440472</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.1957031370341268</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1985150221936541</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.2521873672598253</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1862196189683466</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>43690</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1673468723300696</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.1959035738779449</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1983049662313223</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.2522746295336175</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1861699580270457</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>43691</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.1679440763942781</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1956094686452956</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.1986277648062824</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.2515491995587359</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.1862694905954079</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>43692</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.1679875050799536</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.1957467422058453</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1989882229407422</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.2506119559058502</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1866655738676088</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.1683756578807036</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.195206205904002</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1990218136611569</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.2500056973610787</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1873906251930587</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.1682232837896772</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.1948060096871664</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.1991530236539523</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.2505134035419135</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.1873042793272908</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>43697</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1684407195427101</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.1948406886823318</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.1995851031724139</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.2497015656184044</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1874319229841398</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>43698</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.1684018298792009</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1948890139299344</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1991488013296995</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.2503721566371965</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1871881982239688</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>43699</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.1685886608968688</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.1949333022172433</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1992924162235891</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.2498533497591861</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1873322709031127</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>43700</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.1685225891832886</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.194754858898416</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1994512346815617</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.2497728007318002</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1874985165049335</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1687395814375527</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.1948627335059722</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1994500398988646</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.2493910960929317</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1875565490646789</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.1688330559269491</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.1949450538668012</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1992972173939217</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.2494772455585053</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1874474272538227</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>43705</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.16886604300752</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.1948832378727163</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1992743308825725</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.2495054120430073</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.187470976194184</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.168638986963509</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.1949364195646997</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1991571692959085</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2500159796128363</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1872514445630465</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.1686945459953382</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.1947761677996482</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1991889330393768</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.2499436105666248</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.1873967425990118</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>43710</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.1686276607574817</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.1947599983119413</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.199099813704336</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.2502144652111821</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.187298062015059</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>43711</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1687053993097374</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.1946334592001452</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1991067135906417</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.2501671730832113</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1873872548162645</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>43712</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.1685853885866175</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.1947235921717901</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1990991570497205</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.2502293367491173</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.1873625254427547</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>43713</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.1684354194764189</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.1946574087148471</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1991165931927594</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.2506426215430715</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1871479570729029</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>43714</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.1682170919214298</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.1949554219935394</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1988217627292836</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.2510794057437134</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.1869263176120338</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>43717</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.1683207073679024</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.1950986386097231</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1988845630216272</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.2507409868024431</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.1869551041983042</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.1684575890062988</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.1951426349771814</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1988992782836481</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.2507366604174928</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.1867638373153789</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>43719</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.1682484607187757</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.1952938929437716</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1987703453637744</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.251054808498199</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.1866324924754792</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>43720</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1682622722737815</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1952709691586143</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.1987853151748291</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.2510350211170816</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1866464222756936</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>43721</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.1682960833834053</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.1952419199210677</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1988180262705537</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.2510400021731748</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1866039682517983</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>43724</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.1684009866902275</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.1951548329706684</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1988493650662437</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.2508567178896599</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.1867380973832006</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>43725</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1684461983802411</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.195142623977435</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1988381719326057</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.2508163212256476</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.1867566844840706</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1683896194403955</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.1950921339610472</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1989579136748429</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.2507617702101434</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.1867985627135711</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.1683044982072423</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.1951406091518992</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1988983505442217</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.2509678061418911</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.1866887359547458</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>43728</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.1683000052956584</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.1951369802243046</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1988088385209258</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.2511613508244859</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.1865928251346253</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>43731</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1684629518192899</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1950236324235118</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1989524774597716</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.2507618732391876</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.1867990650582391</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>43732</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1684714221958369</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1950102893745212</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1989375739537988</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.2508286713535101</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1867520431223331</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.168531481537736</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1950513589146894</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1989362133631934</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.2505276843404186</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.1869532618439626</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.1684922616907547</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1950916422133857</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.1990047251457053</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.2505075519660733</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.186903818984081</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>43735</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1684965669512747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1952299146667947</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.1989830119127209</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.2504632497686414</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.1868272567005683</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.1684748749395207</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.1951689334725157</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1990130006499327</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.250559211855112</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.186783979082919</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.1685818240260745</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.1951364689264798</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1990008778819672</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.2503303708342977</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.1869504583311807</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.1687766222374666</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1951446676698344</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.1992176415550541</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.249285105728432</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.187575962809213</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.1687454742798312</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.1956834095047147</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.1991434961505164</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.2487628748425026</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.1876647452224351</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>43742</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.1686985481005719</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.1954313439373527</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.1990432489286526</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.2493319181773041</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1874949408561186</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.1687043726533721</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.195347554579346</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.1990332100706801</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.2495991586316479</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1873157040649541</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>43746</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.168773637783512</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1955079409779097</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.1991047114748577</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.2490715519547263</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.1875421578089944</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.1687277745226176</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1953866154538382</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.199073367368113</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.2493433033105476</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.1874689393448837</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.1687122355703297</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.195385493632027</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.1989861630802083</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.2496779067194007</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.1872382009980341</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>43749</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1685590581930816</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1951812912539692</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1987149791379462</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.2507780869274248</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1867665844875782</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>43752</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1685791405540513</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1952319140062337</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1987570779257075</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2505268154166794</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.186905052097328</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1685021336832461</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1951681474446791</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.1987762792683876</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.2508050664868092</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.1867483731168781</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>43754</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1685655452967548</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1950020633040705</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.1988910119255285</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2507579696313381</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.1867834098423082</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>43755</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.1685230199747619</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1950827759009967</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.1987985030595263</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.2507793157227332</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.186816385341982</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>43756</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1686327528504244</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.1951015701344119</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1989004628465453</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.2504457660862478</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1869194480823707</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1686418261328499</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1948476158043446</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1990215034340729</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.250612439271176</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.1868766153575565</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>43760</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.1686490693452121</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.1948040934370464</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.1989818255771483</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.250614849737429</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1869501619031642</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.1686412928965732</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1947421018470652</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.198964768542682</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.2507286907905679</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1869231459231118</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.1686280234779142</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.1946315399211303</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1990335135450033</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.2507115595752877</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1869953634806646</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43763</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.1685876929320839</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1946977193802456</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.1989996239863462</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.2507926870564868</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.1869222766448374</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1686351698409463</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1945299752101004</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.1990878618400424</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.2507081499102023</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.1870388431987086</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1685252851153039</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.194415198718522</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.1987378739946498</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.2501405142656611</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.1881811279058632</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.1685968468784345</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1944414735045309</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.1987715229346992</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.2499961898287896</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1881939668535458</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1686723895423088</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1944982057005926</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1989138251750864</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.2496021854951717</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1883133940868406</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1685191659175335</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.1944160595606449</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.198901022648612</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2499033254831006</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.1882604263901089</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43773</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.168424365956491</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.194026775136063</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.1991073259050807</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.2500462746800463</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.188395258322319</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43774</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.1685806455361938</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1940043140938204</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1992167564101286</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.2496831272048493</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.188515156755008</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43775</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1686003274061544</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1940555087891509</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.1991069146009469</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.2497111012022921</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.1885261480014556</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43776</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1684887012066172</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1939573823434992</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.1990443324310358</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2499897607574065</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.1885198232614413</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43777</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.1687953158994527</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1940010686130129</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.1992135605636267</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.2493468747611397</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1886431801627681</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43780</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1688406984804917</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1941189501397284</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.1991506734296868</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2492414598210482</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.188648218129045</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43781</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1688823486299506</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1939902632260161</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1992413706108362</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.2490768730496295</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.1888091444835677</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43782</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.1689419449755242</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1941333443111135</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.1991424335511777</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.2489468981311909</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.1888353790309938</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43783</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1689681021709181</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1942731097108095</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1991120801622637</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.2488785916785051</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.1887681162775034</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43784</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.169065571945424</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.194208270964957</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.1991669438855385</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.2488299230270981</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1887292901769824</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43787</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.1690961035312755</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1942577632785305</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1990827823397832</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.2488390792380675</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1887242716123433</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43788</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1690985915325836</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1945426001725126</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1989527625183619</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.2488373280335871</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1885687177429549</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43789</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.1692543265725384</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1945796776097473</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1990639392953068</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.2485494546154992</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.1885526019069083</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43790</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.1691101257004901</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.194787135130641</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1988042126897584</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.2488362356393748</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.1884622908397357</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43791</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.169161726986925</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1949845696727621</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1988486018083396</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.2484798963948945</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1885252051370789</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43794</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1691555451253763</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1949534660311999</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1988999792038421</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.2484493332536114</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1885416763859704</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43795</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1692180738800186</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1949271778778785</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1988892041770851</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.2484669753347481</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1884985687302698</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1694170673842801</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1946590704562318</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1990825092402971</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.2483285621760734</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1885127907431177</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43797</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.1691870664595128</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1952171721163662</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.198828750031721</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.2483440308542353</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.1884229805381647</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1692891802169645</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1950866878203422</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.1988639671688754</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.2484497106914424</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.1883104541023754</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43801</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.1690241232029432</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.19641139623197</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1987276060858344</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.2476467210433769</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.1881901534358756</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43802</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.1687388511445601</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1962038275319717</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1988714433937589</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.2482212272968342</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.1879646506328752</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43803</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1689002680686632</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1958016230168846</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.1987617558095759</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.2484550903761651</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1880812627287113</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43804</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.1685776172513338</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1965312866416234</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.19835151665548</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.2487565943160344</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.1877829851355284</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43805</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.1689273784245729</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.1959624989876191</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1984990182374904</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.2487436159522992</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.1878674883980184</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1687792680270681</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.1963962422066276</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.1984624640279792</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.2485991837530163</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1877628419853087</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.1686220721720998</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1968887771146688</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.1983242657978504</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.2484911369404306</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.1876737479749505</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.1686301192508859</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1964175641816228</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1983622492946436</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.2489514216574588</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1876386456153888</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>43811</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.1688069857075956</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1962274497340269</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.1984920749299317</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.248732469882216</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.1877410197462298</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>43812</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.1687660797403774</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1963589274186635</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1983651845946762</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.2488035709497426</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1877062372965403</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>43815</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.1693746912395075</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1957542858310045</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.1986931627675741</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.248152114895794</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.1880257452661198</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>43816</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.1690904221465796</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1967127862928838</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.1985623283110658</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.2477447872841852</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.1878896759652856</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>43817</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.1691200869234103</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.197088118539181</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1985598715065019</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.2473977328796461</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1878341901512608</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>43818</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.169020374898495</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1975549713248838</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1984383418964403</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.2471650159692416</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1878212959109393</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>43819</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.1692052352834431</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1968075997030762</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.1986015181907332</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.2473402528796957</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.1880453939430519</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.169203559195953</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1965681103137757</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1987535390910141</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.2473040447246337</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.1881707466746236</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>43823</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.1690217313038926</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1963483254480452</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.1987804656644475</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.2474752599325866</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.1883742176510281</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>43824</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.1690763932082382</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1957085526461957</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.199084792544525</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.247415892790447</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.1887143688105942</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>43825</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1691126454854943</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1959456123437245</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1989821125700347</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.2473717491363679</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1885878804643787</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>43826</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.1692900721966309</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.1957453023814611</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1990552571728219</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.2473842427540422</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.188525125495044</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>43829</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.169090898527966</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.1956712733195359</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1990058386946064</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.2478239635829247</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.188408025874967</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio-matrices/bohbohboh.xlsx
+++ b/portfolio-matrices/bohbohboh.xlsx
@@ -471,19 +471,19 @@
         <v>43465</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1674303660754783</v>
+        <v>0.167429060537152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1929983144548651</v>
+        <v>0.1929990211824646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2008565642845515</v>
+        <v>0.2008582840095177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.252181823230986</v>
+        <v>0.2521840170226298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1865329319541189</v>
+        <v>0.1865296172482358</v>
       </c>
     </row>
   </sheetData>
